--- a/events/static/events/xl_templates/startlist_template.xlsx
+++ b/events/static/events/xl_templates/startlist_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Разряд</t>
+  </si>
+  <si>
+    <t>Pin</t>
   </si>
 </sst>
 </file>
@@ -145,6 +148,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -156,12 +165,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,9 +446,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -462,61 +465,65 @@
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,14 +547,17 @@
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
